--- a/Analise_Desempenho.xlsx
+++ b/Analise_Desempenho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/225e58897256a9cc/Faculdade/2. Sistemas Distribuídos e Programação Paralela/AV1/Desafio 02 - Programação Paralela (N° Primos)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048A129D8430C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{289BE87A-AA81-4BF9-9F62-79302D1968B2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048A129D8430C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67386235-7C57-41B4-8737-8E07A2CD4B8D}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Implementação</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Speedup</t>
   </si>
   <si>
-    <t>Aprox. 2,55 vezes mais rápido</t>
-  </si>
-  <si>
-    <t>Aprox. 2,54 vezes mais rápido</t>
-  </si>
-  <si>
     <t>Sequencial (1 Thread)</t>
   </si>
   <si>
@@ -80,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,14 +113,8 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -158,46 +146,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -210,7 +342,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -471,13 +603,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393.66666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>396</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,13 +1344,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>229719</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>101973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>162484</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>122144</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1248,15 +1380,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59972C7C-880A-4849-AE1C-F8FC306175A9}" name="Tabela1" displayName="Tabela1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:E10" xr:uid="{59972C7C-880A-4849-AE1C-F8FC306175A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59972C7C-880A-4849-AE1C-F8FC306175A9}" name="Tabela1" displayName="Tabela1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E31" xr:uid="{59972C7C-880A-4849-AE1C-F8FC306175A9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C960F31D-CEE7-4313-B150-3E80C2793709}" name="Implementação" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{82F9A4A7-8870-49DA-A549-319A0B9198F5}" name="Threads" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DD1ECB0F-ED2F-4D69-84A6-6B04483AD569}" name="Tempo de Execução(ms)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{21DAEC07-7864-403E-AD88-846F5D4CBE26}" name="Tempo Médio de Execução(ms)" dataDxfId="1">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Tempo de Execução(ms)]]+C3+C4/3</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{C960F31D-CEE7-4313-B150-3E80C2793709}" name="Implementação" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{82F9A4A7-8870-49DA-A549-319A0B9198F5}" name="Threads" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DD1ECB0F-ED2F-4D69-84A6-6B04483AD569}" name="Tempo de Execução(ms)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{21DAEC07-7864-403E-AD88-846F5D4CBE26}" name="Tempo Médio de Execução(ms)" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{C9C64CE5-F9E3-43B5-A677-21B0C48C9279}" name="Speedup" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1526,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,200 +1673,403 @@
     <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>954</v>
-      </c>
-      <c r="D2" s="4">
-        <f>(Tabela1[[#This Row],[Tempo de Execução(ms)]]+C3+C4)/3</f>
-        <v>1004</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="J2" s="8" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <f>Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11">
-        <f>Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="K4" s="6">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>982</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="J3" s="9" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="22"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="22"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="22"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="22"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="22"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="19">
+        <v>5</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="19">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="23">
+        <v>5</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="16">
         <v>10</v>
       </c>
-      <c r="K3" s="12">
-        <f>D5</f>
-        <v>393.66666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1076</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="11">
-        <f>D8</f>
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>400</v>
-      </c>
-      <c r="D5" s="4">
-        <f>(Tabela1[[#This Row],[Tempo de Execução(ms)]]+C6+C7)/3</f>
-        <v>393.66666666666669</v>
-      </c>
-      <c r="E5" s="3">
-        <f>D2/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
-        <v>2.550381033022862</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B23" s="19">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>383</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B24" s="19">
+        <v>10</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>398</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B25" s="19">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B26" s="19">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>374</v>
-      </c>
-      <c r="D8" s="4">
-        <f>(Tabela1[[#This Row],[Tempo de Execução(ms)]]+C9+C10)/3</f>
-        <v>396</v>
-      </c>
-      <c r="E8" s="3">
-        <f>D2/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
-        <v>2.5353535353535355</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B27" s="19">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
-        <v>388</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B28" s="19">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
-        <v>426</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19">
+        <v>10</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="19">
+        <v>10</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="23">
+        <v>10</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F8:G8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/Analise_Desempenho.xlsx
+++ b/Analise_Desempenho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/225e58897256a9cc/Faculdade/2. Sistemas Distribuídos e Programação Paralela/AV1/Desafio 02 - Programação Paralela (N° Primos)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048A129D8430C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67386235-7C57-41B4-8737-8E07A2CD4B8D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048A129D8430C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254179FD-1506-4D67-B52A-EA4991136CD1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10875" yWindow="75" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +112,18 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,9 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,12 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,21 +297,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,10 +321,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -338,11 +348,11 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -603,13 +613,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>914.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>399.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>364.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,16 +1352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>229719</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101973</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>610719</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>186640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>162484</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>543484</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1386,8 +1396,10 @@
     <tableColumn id="1" xr3:uid="{C960F31D-CEE7-4313-B150-3E80C2793709}" name="Implementação" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{82F9A4A7-8870-49DA-A549-319A0B9198F5}" name="Threads" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{DD1ECB0F-ED2F-4D69-84A6-6B04483AD569}" name="Tempo de Execução(ms)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{21DAEC07-7864-403E-AD88-846F5D4CBE26}" name="Tempo Médio de Execução(ms)" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C9C64CE5-F9E3-43B5-A677-21B0C48C9279}" name="Speedup" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{21DAEC07-7864-403E-AD88-846F5D4CBE26}" name="Tempo Médio de Execução(ms)" dataDxfId="0">
+      <calculatedColumnFormula>SUM(C2:C11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C9C64CE5-F9E3-43B5-A677-21B0C48C9279}" name="Speedup" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1658,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1680,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1697,383 +1709,462 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="15">
+        <v>969</v>
+      </c>
+      <c r="D2" s="27">
+        <f>SUM(C2:C11)/10</f>
+        <v>914.1</v>
+      </c>
+      <c r="E2" s="32">
+        <f>Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
+        <v>1</v>
+      </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="6">
         <f>Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
-        <v>0</v>
+        <v>914.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="16">
+        <v>893</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="29"/>
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="7">
         <f>D12</f>
-        <v>0</v>
+        <v>399.6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="16">
+        <v>866</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="29"/>
       <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="6">
-        <f>D15</f>
-        <v>0</v>
+        <f>D22</f>
+        <v>364.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="16">
+        <v>938</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="30"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="C6" s="16">
+        <v>945</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="30"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="C7" s="16">
+        <v>942</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="30"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="C8" s="16">
+        <v>871</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="30"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="C9" s="16">
+        <v>1013</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="30"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="C10" s="16">
+        <v>845</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="30"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="C11" s="19">
+        <v>859</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="31"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>5</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="15">
+        <v>389</v>
+      </c>
+      <c r="D12" s="27">
+        <f>SUM(C12:C21)/10</f>
+        <v>399.6</v>
+      </c>
+      <c r="E12" s="32">
+        <f>D2/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
+        <v>2.2875375375375375</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>5</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="16">
+        <v>368</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="16">
+        <v>379</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="16">
+        <v>442</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>5</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="16">
+        <v>379</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>5</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="16">
+        <v>409</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="16">
+        <v>480</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>5</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="C19" s="16">
+        <v>383</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="16">
+        <v>400</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="19">
         <v>5</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="19">
+        <v>367</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>10</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="C22" s="15">
+        <v>359</v>
+      </c>
+      <c r="D22" s="28">
+        <f>SUM(C22:C31)/10</f>
+        <v>364.1</v>
+      </c>
+      <c r="E22" s="32">
+        <f>D2/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
+        <v>2.5105740181268881</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="16">
         <v>10</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="16">
+        <v>326</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="16">
         <v>10</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="16">
+        <v>438</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="16">
         <v>10</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="16">
+        <v>434</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <v>10</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="16">
+        <v>348</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <v>10</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="16">
+        <v>349</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="16">
         <v>10</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="16">
+        <v>342</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="16">
         <v>10</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="16">
+        <v>388</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="16">
         <v>10</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="16">
+        <v>335</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="19">
         <v>10</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
+      <c r="C31" s="19">
+        <v>322</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Analise_Desempenho.xlsx
+++ b/Analise_Desempenho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/225e58897256a9cc/Faculdade/2. Sistemas Distribuídos e Programação Paralela/AV1/Desafio 02 - Programação Paralela (N° Primos)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048A129D8430C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254179FD-1506-4D67-B52A-EA4991136CD1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048A129D8430C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{172CDD96-18E1-4C0B-908E-4675476557C4}"/>
   <bookViews>
     <workbookView xWindow="10875" yWindow="75" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +112,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -243,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,12 +291,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,16 +327,7 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,11 +1709,11 @@
       <c r="C2" s="15">
         <v>969</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="29">
         <f>SUM(C2:C11)/10</f>
         <v>914.1</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <f>Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
         <v>1</v>
       </c>
@@ -1745,7 +1736,7 @@
         <v>893</v>
       </c>
       <c r="D3" s="17"/>
-      <c r="E3" s="29"/>
+      <c r="E3" s="18"/>
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1765,7 +1756,7 @@
         <v>866</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="29"/>
+      <c r="E4" s="18"/>
       <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1785,9 +1776,9 @@
         <v>938</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="30"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="E5" s="19"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1800,9 +1791,9 @@
         <v>945</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="30"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="E6" s="19"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1815,9 +1806,9 @@
         <v>942</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="30"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="E7" s="19"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1830,9 +1821,9 @@
         <v>871</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="30"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="E8" s="19"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1845,9 +1836,9 @@
         <v>1013</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="30"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="E9" s="19"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1860,24 +1851,24 @@
         <v>845</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="30"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="E10" s="19"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="20">
         <v>859</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="31"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1889,11 +1880,11 @@
       <c r="C12" s="15">
         <v>389</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="29">
         <f>SUM(C12:C21)/10</f>
         <v>399.6</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <f>D2/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
         <v>2.2875375375375375</v>
       </c>
@@ -1940,8 +1931,8 @@
       <c r="C15" s="16">
         <v>442</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
@@ -1981,8 +1972,8 @@
       <c r="C18" s="16">
         <v>480</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1994,8 +1985,8 @@
       <c r="C19" s="16">
         <v>383</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -2007,21 +1998,21 @@
       <c r="C20" s="16">
         <v>400</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="20">
         <v>5</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="20">
         <v>367</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -2033,11 +2024,11 @@
       <c r="C22" s="15">
         <v>359</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="30">
         <f>SUM(C22:C31)/10</f>
         <v>364.1</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f>D2/Tabela1[[#This Row],[Tempo Médio de Execução(ms)]]</f>
         <v>2.5105740181268881</v>
       </c>
@@ -2052,8 +2043,8 @@
       <c r="C23" s="16">
         <v>326</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
@@ -2065,8 +2056,8 @@
       <c r="C24" s="16">
         <v>438</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -2078,8 +2069,8 @@
       <c r="C25" s="16">
         <v>434</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -2091,8 +2082,8 @@
       <c r="C26" s="16">
         <v>348</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -2104,8 +2095,8 @@
       <c r="C27" s="16">
         <v>349</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -2117,8 +2108,8 @@
       <c r="C28" s="16">
         <v>342</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -2130,8 +2121,8 @@
       <c r="C29" s="16">
         <v>388</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
@@ -2143,21 +2134,21 @@
       <c r="C30" s="16">
         <v>335</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="20">
         <v>10</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="20">
         <v>322</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
